--- a/server/tests/data/excel/insert_interest_test_data.xlsx
+++ b/server/tests/data/excel/insert_interest_test_data.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Name must not be empty.</t>
+          <t>[{'type': 'missing', 'loc': ['body', 'name'], 'msg': 'Field required', 'input': {'color': '#FF5733', 'related_terms': 'Test interest related terms', 'status': 'published'}}]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -744,12 +744,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Color must be exactly 7 characters long.</t>
+          <t>[{'type': 'string_too_long', 'loc': ['body', 'color'], 'msg': 'String should have at most 7 characters', 'input': '#FF57333', 'ctx': {'max_length': 7}}]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-07 13:13:37</t>
+          <t>2025-06-07 18:38:05</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_interest_test_data.xlsx
+++ b/server/tests/data/excel/insert_interest_test_data.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-07 18:38:05</t>
+          <t>2025-06-20 08:58:22</t>
         </is>
       </c>
     </row>

--- a/server/tests/data/excel/insert_interest_test_data.xlsx
+++ b/server/tests/data/excel/insert_interest_test_data.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:14</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:14</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:14</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-20 08:58:22</t>
+          <t>2025-06-22 09:56:15</t>
         </is>
       </c>
     </row>
